--- a/Config/ChessType.xlsx
+++ b/Config/ChessType.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>id</t>
   </si>
@@ -22,19 +22,70 @@
     <t>类型</t>
   </si>
   <si>
-    <t>攻击范围</t>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>别名</t>
   </si>
   <si>
     <t>type</t>
   </si>
   <si>
-    <t>attack</t>
+    <t>strName</t>
+  </si>
+  <si>
+    <t>strEng</t>
   </si>
   <si>
     <t>int</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>all</t>
+  </si>
+  <si>
+    <t>将</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>士</t>
+  </si>
+  <si>
+    <t>Bachelor</t>
+  </si>
+  <si>
+    <t>相</t>
+  </si>
+  <si>
+    <t>Minister</t>
+  </si>
+  <si>
+    <t>马</t>
+  </si>
+  <si>
+    <t>Horse</t>
+  </si>
+  <si>
+    <t>车</t>
+  </si>
+  <si>
+    <t>Charoit</t>
+  </si>
+  <si>
+    <t>炮</t>
+  </si>
+  <si>
+    <t>Cannon</t>
+  </si>
+  <si>
+    <t>兵</t>
+  </si>
+  <si>
+    <t>Solider</t>
   </si>
 </sst>
 </file>
@@ -42,10 +93,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -63,23 +114,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -107,47 +151,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,41 +200,54 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -209,55 +260,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,48 +434,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -318,78 +441,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,24 +456,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -446,7 +493,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -467,6 +514,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -480,26 +551,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -508,10 +559,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -520,133 +571,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -973,15 +1024,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -991,115 +1042,148 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5">
-        <v>0</v>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6">
-        <v>0</v>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7">
-        <v>0</v>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8">
         <v>4</v>
       </c>
-      <c r="C8">
-        <v>0</v>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9">
         <v>5</v>
       </c>
-      <c r="C9">
-        <v>0</v>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10">
         <v>6</v>
       </c>
-      <c r="C10">
-        <v>0</v>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>7</v>
       </c>
       <c r="B11">
         <v>7</v>
       </c>
-      <c r="C11">
-        <v>0</v>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Config/ChessType.xlsx
+++ b/Config/ChessType.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9420"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,27 +14,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="31">
   <si>
     <t>id</t>
   </si>
   <si>
+    <t>颜色</t>
+  </si>
+  <si>
     <t>类型</t>
   </si>
   <si>
+    <t>别名</t>
+  </si>
+  <si>
     <t>名称</t>
   </si>
   <si>
-    <t>别名</t>
+    <t>位置X</t>
+  </si>
+  <si>
+    <t>位置Y</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>color</t>
   </si>
   <si>
     <t>type</t>
   </si>
   <si>
-    <t>strName</t>
-  </si>
-  <si>
-    <t>strEng</t>
+    <t>alias</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>posx</t>
+  </si>
+  <si>
+    <t>posy</t>
+  </si>
+  <si>
+    <t>ps</t>
   </si>
   <si>
     <t>int</t>
@@ -46,40 +70,37 @@
     <t>all</t>
   </si>
   <si>
-    <t>将</t>
-  </si>
-  <si>
-    <t>General</t>
-  </si>
-  <si>
-    <t>士</t>
-  </si>
-  <si>
-    <t>Bachelor</t>
-  </si>
-  <si>
-    <t>相</t>
-  </si>
-  <si>
-    <t>Minister</t>
+    <t>王</t>
+  </si>
+  <si>
+    <t>King</t>
+  </si>
+  <si>
+    <t>wocao</t>
+  </si>
+  <si>
+    <t>后</t>
+  </si>
+  <si>
+    <t>Queen</t>
+  </si>
+  <si>
+    <t>车</t>
+  </si>
+  <si>
+    <t>Car</t>
+  </si>
+  <si>
+    <t>象</t>
+  </si>
+  <si>
+    <t>elephant</t>
   </si>
   <si>
     <t>马</t>
   </si>
   <si>
     <t>Horse</t>
-  </si>
-  <si>
-    <t>车</t>
-  </si>
-  <si>
-    <t>Charoit</t>
-  </si>
-  <si>
-    <t>炮</t>
-  </si>
-  <si>
-    <t>Cannon</t>
   </si>
   <si>
     <t>兵</t>
@@ -93,10 +114,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -107,8 +128,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,6 +166,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -138,40 +182,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -183,9 +196,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,37 +213,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,6 +249,28 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -260,19 +281,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,163 +449,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,26 +472,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -494,6 +495,26 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,15 +549,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -551,6 +563,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -559,10 +580,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -571,133 +592,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1024,15 +1045,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1045,145 +1066,927 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
         <v>3</v>
       </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
       <c r="D7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10">
+        <v>6</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>7</v>
       </c>
       <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12">
         <v>7</v>
       </c>
-      <c r="C11" t="s">
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18">
+        <v>6</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19">
+        <v>7</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20">
+        <v>8</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>17</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21">
+        <v>8</v>
+      </c>
+      <c r="H21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>18</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
         <v>22</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <v>8</v>
+      </c>
+      <c r="H22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>19</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
         <v>23</v>
+      </c>
+      <c r="E23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>8</v>
+      </c>
+      <c r="H23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24">
+        <v>8</v>
+      </c>
+      <c r="G24">
+        <v>8</v>
+      </c>
+      <c r="H24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <v>21</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25">
+        <v>8</v>
+      </c>
+      <c r="H25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26">
+        <v>22</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26">
+        <v>6</v>
+      </c>
+      <c r="G26">
+        <v>8</v>
+      </c>
+      <c r="H26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <v>23</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>8</v>
+      </c>
+      <c r="H27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28">
+        <v>24</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28">
+        <v>7</v>
+      </c>
+      <c r="G28">
+        <v>8</v>
+      </c>
+      <c r="H28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29">
+        <v>25</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>7</v>
+      </c>
+      <c r="H29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30">
+        <v>26</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <v>7</v>
+      </c>
+      <c r="H30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31">
+        <v>27</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31">
+        <v>7</v>
+      </c>
+      <c r="H31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32">
+        <v>28</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32">
+        <v>7</v>
+      </c>
+      <c r="H32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33">
+        <v>29</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33">
+        <v>5</v>
+      </c>
+      <c r="G33">
+        <v>7</v>
+      </c>
+      <c r="H33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34">
+        <v>30</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34">
+        <v>6</v>
+      </c>
+      <c r="G34">
+        <v>7</v>
+      </c>
+      <c r="H34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35">
+        <v>31</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35">
+        <v>7</v>
+      </c>
+      <c r="G35">
+        <v>7</v>
+      </c>
+      <c r="H35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36">
+        <v>32</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>6</v>
+      </c>
+      <c r="D36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36">
+        <v>8</v>
+      </c>
+      <c r="G36">
+        <v>7</v>
+      </c>
+      <c r="H36" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
